--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_19.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_19.xlsx
@@ -483,625 +483,645 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.233974358974359</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.92, 26.04), (56.8, 61.48), (19.84, 24.02)]</t>
+          <t>[(40.64, 44.84)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.76, 46.06), (35.08, 43.92), (41.14, 53.02)]</t>
+          <t>[(38.58, 45.98)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09166666666666667</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'B/3']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.383333, 11.07068)]</t>
+          <t>[(58.557, 62.834)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.388254, 19.382087)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[(8.74, 17.66)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2664473684210527</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
+          <t>[(27.0, 49.86)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[(20.56, 26.4)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2003577817531306</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.02, 45.9)]</t>
+          <t>[(9.82, 12.93)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(91.84, 103.94)]</t>
+          <t>[(215.66, 222.96)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.04171122994652406</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7'], ['Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.78, 27.65), (66.74, 74.43)]</t>
+          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.2, 40.68), (56.36, 60.92)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1039473684210526</v>
+        <v>0.2385964912280702</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Db', 'Eb', 'Ab']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(21.879569, 24.631133)]</t>
+          <t>[(111.92, 115.66)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(55.151295, 60.155195)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[(10.634761, 19.597664)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3726708074534161</v>
+        <v>0.2728635682158921</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>[['E', 'A', 'D', 'E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['A', 'D', 'G', 'A', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(63.1, 66.36)]</t>
+          <t>[(54.386064, 77.14162)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.6, 24.18)]</t>
+          <t>[(31.43458, 42.278299)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.1589673913043478</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['E:7', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.8, 98.98)]</t>
+          <t>[(48.277, 54.481)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.1, 84.58)]</t>
+          <t>[(40.34, 42.74)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2604166666666666</v>
+        <v>0.09646739130434782</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj', 'F:maj']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.82, 10.46)]</t>
+          <t>[(19.000294, 29.309954)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.689, 45.633)]</t>
+          <t>[(41.08, 43.26)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2701149425287356</v>
+        <v>0.2015810276679842</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['G:7', 'C', 'C/b7']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(22.3, 48.74)]</t>
+          <t>[(34.041, 38.588)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.38, 25.18)]</t>
+          <t>[(9.24, 16.18)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.1, 45.98)]</t>
+          <t>[(16.2, 18.46)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(44.16, 58.08)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[(8.74, 17.66)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1534526854219949</v>
+        <v>0.1152482269503546</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[(50.046698, 55.352457)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.465419, 19.151224)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[(52.750498, 59.809365)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1277173913043478</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min'], ['B', 'E', 'E/7']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Bb:maj', 'G:min'], ['F:maj', 'Bb:maj', 'Bb:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562), (9.201473, 13.148866)]</t>
+          <t>[(0.38, 7.84), (8.34, 10.04)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(49.16, 62.76), (45.697, 59.327)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[(79.04, 86.54), (2.5, 26.2)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.1726973684210526</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B', 'E', 'A'], ['B:sus4', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'C', 'F'], ['G:sus4', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[(46.016712, 58.392947), (26.14043, 31.051451)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(5.776, 9.009), (4.928, 8.311)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_242</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1399594320486816</v>
+        <v>0.1306715063520871</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[(44.310045, 50.196303)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>[(51.85331, 57.05458)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1306715063520871</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66), (7.14, 14.34)]</t>
+          <t>[(10.2, 17.38)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>[(47.25, 51.08)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_19.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
-        </is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.082579185520362</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.64, 44.84)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(38.58, 45.98)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
-        </is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1227678571428572</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A/b3', 'A/3', 'D', 'A', 'A/2']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834)]</t>
+          <t>[['G', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:05.369945', '0:01:12.097891')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:06.774988', '0:00:12.022698')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1764705882352941</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:50.730362', '0:00:54.666145')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2053571428571428</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_42</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1455479452054795</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(215.66, 222.96)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:34.650000', '0:00:37.760000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:41.770000', '0:00:53.980000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07672413793103448</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:12.060000', '0:00:17.060000'), ('0:00:04.840000', '0:00:10.640000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:23.300000', '0:00:26.860000'), ('0:00:12.280000', '0:00:17.300000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(111.92, 115.66)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2728635682158921</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'A', 'D', 'G', 'D']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(54.386064, 77.14162)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(31.43458, 42.278299)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1589673913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(48.277, 54.481)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.34, 42.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.2, 18.46)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1152482269503546</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(50.046698, 55.352457)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(52.750498, 59.809365)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.38, 7.84), (8.34, 10.04)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(79.04, 86.54), (2.5, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A'], ['B:sus4', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F'], ['G:sus4', 'G', 'C']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.016712, 58.392947), (26.14043, 31.051451)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.776, 9.009), (4.928, 8.311)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1306715063520871</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.2, 17.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(47.25, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
